--- a/extracted_tables.xlsx
+++ b/extracted_tables.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cardio Page 6" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prot SAP 102 Page 50" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prot SAP 1 Page 14" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -746,4 +748,1278 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Visit #</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr"/>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Event/Procedure</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Pre-
+screen</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Screen</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Baselin
+e/Rand</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Wk 1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Wk 2</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Wk 3</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Wk 4</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Wk 8</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Wk 12</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Wk 16</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Wk 20</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Wk 24</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Wk 26</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Wk 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>In-
+person
+visit</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>In-
+person
+visit
+(within 4
+wks)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Phone/
+in-person
+contact
+(day 6-8)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>In-
+person
+visit</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Phone/
+in-
+person
+contact</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>In-
+person
+visit</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Phone/
+in-
+person
+contact</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Phone/
+in-
+person
+contact</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>In-
+person
+visit</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Phone/
+in-
+person
+contact</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Phone/
+in-
+person
+contact</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>In-
+person
+visit
+(+/- 2
+wks)</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Phone/
+in-
+person
+contact</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Eligibility Criteria</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Informed Consent</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Serum Pregnancy1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>X rpt</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Randomization</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Demographics</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Medical History</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Concomitant Meds</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Vital signs &amp; edema
+assessment</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Physical exam</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Central Labs [Chem
+panel 10, CBC]</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Serum/Plasma for
+Long-Term Storage</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Review of Dialysis
+Unit Labs and
+Records2</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Drug Distribution</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1 wk
+supply</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1 wk
+supply</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2 wk
+supply</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>prn</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>12 wk
+supply</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>10 wk
+supply</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Dose Escalation</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Drug Reconciliation</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Adverse Events</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Dose Assessment
+[prn]</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>PET Scan</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>TDI-Echo Scan</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Randomization</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>8 hours</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>24
+hours</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>48
+hours</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>72
+hours</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>96
+hours</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Discharge</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Vital Statistics</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>UO
+(Fluid Balance)</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Serum
+Chemistries</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Cystatin C</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PRA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>